--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>0.1975889755682844</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.818269785337044</v>
+        <v>-1.791736545009278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03978266042147446</v>
+        <v>0.04322976229712296</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07276442880888861</v>
+        <v>-0.08006472949348122</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2150221095376512</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.848611364928797</v>
+        <v>-1.836435540015975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01364607291227654</v>
+        <v>0.02161375770430062</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06315504207334792</v>
+        <v>-0.06244988150700521</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2546099834991902</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.948615095781514</v>
+        <v>-1.937430902915112</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01271245129302478</v>
+        <v>-0.01868900189660349</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05849751949341919</v>
+        <v>-0.06815727484084151</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3070804502452774</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.004173248706065</v>
+        <v>-1.979552441610679</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0347172386088084</v>
+        <v>-0.0379408297692322</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05682748520571915</v>
+        <v>-0.06348716010794236</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3592432900521407</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.976041591960618</v>
+        <v>-1.935265839613763</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02523692144121435</v>
+        <v>-0.02067541402768496</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06827060421757515</v>
+        <v>-0.08099654881329121</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3971950834495101</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.855304094232567</v>
+        <v>-1.806862868764978</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01559943064181069</v>
+        <v>0.02048833403257063</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06597411031959745</v>
+        <v>-0.06928742056993541</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4118452724799315</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.594356908226854</v>
+        <v>-1.535158836084296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05646726310726175</v>
+        <v>0.05648457731759605</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06339271896066433</v>
+        <v>-0.06463462004737057</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4008012218345733</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.2032218136888</v>
+        <v>-1.128134805526272</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05686234190670822</v>
+        <v>0.04836893472816971</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04992855939705824</v>
+        <v>-0.04931469193975097</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3698653390750254</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7002723358213486</v>
+        <v>-0.6219648845366395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0536151404594649</v>
+        <v>0.04187453183368307</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01707563229727029</v>
+        <v>-0.02137742655578507</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3332317821519303</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1912550142412831</v>
+        <v>-0.1149811956612944</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03897496033192675</v>
+        <v>-0.05361491217914445</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02190967329910515</v>
+        <v>0.01712937722771496</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3074074291429181</v>
       </c>
       <c r="E12" t="n">
-        <v>0.389413231759511</v>
+        <v>0.4712165795126291</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2285750076073224</v>
+        <v>-0.2315735140334002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08479488523331023</v>
+        <v>0.07732773852185977</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3104536406513339</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9603807979157291</v>
+        <v>1.054392237973655</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5236547982584411</v>
+        <v>-0.5112625457164407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.177396004158551</v>
+        <v>0.1680542006736314</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3537584802044663</v>
       </c>
       <c r="E14" t="n">
-        <v>1.540913678272091</v>
+        <v>1.645595393953315</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8413288463862704</v>
+        <v>-0.820327496260316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2917091428430135</v>
+        <v>0.270255262219685</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4426299571836865</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207175510070095</v>
+        <v>2.332884547192775</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.181238275631154</v>
+        <v>-1.157267538432866</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4115691249109395</v>
+        <v>0.3929280164573755</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5734870697184351</v>
       </c>
       <c r="E16" t="n">
-        <v>2.73735709275517</v>
+        <v>2.878681973580274</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.531188372850815</v>
+        <v>-1.506298408485687</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5317816872620369</v>
+        <v>0.5218685148360852</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.736483945290682</v>
       </c>
       <c r="E17" t="n">
-        <v>3.235364150581737</v>
+        <v>3.377120312646077</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.872497892104095</v>
+        <v>-1.847549689031479</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6615076211822757</v>
+        <v>0.6403260458669324</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9207313399722893</v>
       </c>
       <c r="E18" t="n">
-        <v>3.659168798991947</v>
+        <v>3.786645459587848</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.196160295978913</v>
+        <v>-2.155306629685553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8105562138356017</v>
+        <v>0.796083108015242</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.114622499633952</v>
       </c>
       <c r="E19" t="n">
-        <v>4.014980543419332</v>
+        <v>4.13244644240376</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.556118006771803</v>
+        <v>-2.507751547212476</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9553203264407473</v>
+        <v>0.9394904161378262</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.30965706384368</v>
       </c>
       <c r="E20" t="n">
-        <v>4.321549099636824</v>
+        <v>4.445293760896121</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.888530382941932</v>
+        <v>-2.827785837012696</v>
       </c>
       <c r="G20" t="n">
-        <v>1.085850584131971</v>
+        <v>1.059000965960824</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.495776988604379</v>
       </c>
       <c r="E21" t="n">
-        <v>4.556949955303828</v>
+        <v>4.658637886616337</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.167649619703061</v>
+        <v>-3.099426121918965</v>
       </c>
       <c r="G21" t="n">
-        <v>1.201637004713971</v>
+        <v>1.166320737689347</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.665964746835189</v>
       </c>
       <c r="E22" t="n">
-        <v>4.725462868411157</v>
+        <v>4.826286663226073</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.399113066538131</v>
+        <v>-3.313946039922793</v>
       </c>
       <c r="G22" t="n">
-        <v>1.295088093964714</v>
+        <v>1.249850784418532</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.812689559939996</v>
       </c>
       <c r="E23" t="n">
-        <v>4.842108703433388</v>
+        <v>4.937991652226541</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.539063828670339</v>
+        <v>-3.453800786888602</v>
       </c>
       <c r="G23" t="n">
-        <v>1.376183133113247</v>
+        <v>1.326146639266219</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.92990080687256</v>
       </c>
       <c r="E24" t="n">
-        <v>4.911494614338564</v>
+        <v>5.007824584562167</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.657954214959544</v>
+        <v>-3.568780522670935</v>
       </c>
       <c r="G24" t="n">
-        <v>1.439886834990528</v>
+        <v>1.387064327298798</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.019168345819199</v>
       </c>
       <c r="E25" t="n">
-        <v>4.913953232206036</v>
+        <v>4.999630241016676</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.758944068791756</v>
+        <v>-3.67051173950928</v>
       </c>
       <c r="G25" t="n">
-        <v>1.479476563929483</v>
+        <v>1.426181850501363</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.08358585365558</v>
       </c>
       <c r="E26" t="n">
-        <v>4.9110538889846</v>
+        <v>4.986170803510433</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.773577724562489</v>
+        <v>-3.689636071833084</v>
       </c>
       <c r="G26" t="n">
-        <v>1.507689282659676</v>
+        <v>1.450267491095506</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.129308037143791</v>
       </c>
       <c r="E27" t="n">
-        <v>4.879145373357593</v>
+        <v>4.941734669696993</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.715947375464746</v>
+        <v>-3.646857380154374</v>
       </c>
       <c r="G27" t="n">
-        <v>1.501539589952755</v>
+        <v>1.446522899605932</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.159382198332468</v>
       </c>
       <c r="E28" t="n">
-        <v>4.729696979847456</v>
+        <v>4.790702812950829</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.642014123318131</v>
+        <v>-3.578978592557842</v>
       </c>
       <c r="G28" t="n">
-        <v>1.457385205562028</v>
+        <v>1.39833273018819</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.175604631106563</v>
       </c>
       <c r="E29" t="n">
-        <v>4.605944448492554</v>
+        <v>4.661334181371125</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.550642313326627</v>
+        <v>-3.49030937339761</v>
       </c>
       <c r="G29" t="n">
-        <v>1.41005917264188</v>
+        <v>1.354664717705945</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.178235285010543</v>
       </c>
       <c r="E30" t="n">
-        <v>4.46570878889939</v>
+        <v>4.507004754565835</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.434220776029182</v>
+        <v>-3.359566623125012</v>
       </c>
       <c r="G30" t="n">
-        <v>1.356240310846367</v>
+        <v>1.302385246611064</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.166008618728234</v>
       </c>
       <c r="E31" t="n">
-        <v>4.316293449790801</v>
+        <v>4.350370963766961</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.315555474474323</v>
+        <v>-3.237336168260406</v>
       </c>
       <c r="G31" t="n">
-        <v>1.281677451051232</v>
+        <v>1.239835300749696</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.138890828362821</v>
       </c>
       <c r="E32" t="n">
-        <v>4.173904532039699</v>
+        <v>4.214317472979094</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.180259086883801</v>
+        <v>-3.097423969596671</v>
       </c>
       <c r="G32" t="n">
-        <v>1.214957928537538</v>
+        <v>1.16934915047873</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.096303009611875</v>
       </c>
       <c r="E33" t="n">
-        <v>3.972104262555101</v>
+        <v>4.008950476165629</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.064564746420397</v>
+        <v>-2.971500078863933</v>
       </c>
       <c r="G33" t="n">
-        <v>1.14247277398252</v>
+        <v>1.100394520812789</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.038071232898433</v>
       </c>
       <c r="E34" t="n">
-        <v>3.713903739916057</v>
+        <v>3.753995580954708</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.983180874763106</v>
+        <v>-2.894178750558719</v>
       </c>
       <c r="G34" t="n">
-        <v>1.082469591059417</v>
+        <v>1.041815825194463</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.966216691287511</v>
       </c>
       <c r="E35" t="n">
-        <v>3.473310195167884</v>
+        <v>3.512912516259809</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.898590726155725</v>
+        <v>-2.799564461177335</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9923538483267099</v>
+        <v>0.9438992436965895</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.883982234001098</v>
       </c>
       <c r="E36" t="n">
-        <v>3.22120899662388</v>
+        <v>3.250764353664543</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.822846565010054</v>
+        <v>-2.738477566089216</v>
       </c>
       <c r="G36" t="n">
-        <v>0.91903131559916</v>
+        <v>0.8724466456851449</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.796791823170649</v>
       </c>
       <c r="E37" t="n">
-        <v>2.968146072396762</v>
+        <v>3.00553689662326</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.723272541377451</v>
+        <v>-2.640754588943262</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8590627610967251</v>
+        <v>0.8221929371993777</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.708126124472828</v>
       </c>
       <c r="E38" t="n">
-        <v>2.690581966527477</v>
+        <v>2.714459836597609</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.626575824698586</v>
+        <v>-2.556050323949588</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7950096269745148</v>
+        <v>0.7542708640770105</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.620808650813336</v>
       </c>
       <c r="E39" t="n">
-        <v>2.438357994492013</v>
+        <v>2.457820740926896</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.520436567311038</v>
+        <v>-2.438594656089448</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7254065014305985</v>
+        <v>0.6847936600627981</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.537178339487483</v>
       </c>
       <c r="E40" t="n">
-        <v>2.204836517655843</v>
+        <v>2.221658060005183</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.427408889203925</v>
+        <v>-2.340593077559025</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6666609597854142</v>
+        <v>0.6349633627206609</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.457331747384696</v>
       </c>
       <c r="E41" t="n">
-        <v>2.002604966932009</v>
+        <v>2.021321628303395</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.328400725445429</v>
+        <v>-2.247303325268215</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6011502839568795</v>
+        <v>0.5706410713287083</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.383075356777753</v>
       </c>
       <c r="E42" t="n">
-        <v>1.758981435375331</v>
+        <v>1.763169900257112</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.229038407384642</v>
+        <v>-2.15036499665423</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5294127884844794</v>
+        <v>0.5017383842937707</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.313197488718796</v>
       </c>
       <c r="E43" t="n">
-        <v>1.541801425056505</v>
+        <v>1.546317285915517</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.148068502756252</v>
+        <v>-2.068336564166766</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4751075547804844</v>
+        <v>0.4488403236842185</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.247860664929231</v>
       </c>
       <c r="E44" t="n">
-        <v>1.318967538053966</v>
+        <v>1.31178371478435</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.059392987519535</v>
+        <v>-1.97978303541195</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4206937137571196</v>
+        <v>0.405630350766272</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.185704930674337</v>
       </c>
       <c r="E45" t="n">
-        <v>1.107117156479864</v>
+        <v>1.101963817876726</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.978068141579293</v>
+        <v>-1.902573462464348</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3598830590247888</v>
+        <v>0.3475946917447943</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.125368411069356</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9106181833958078</v>
+        <v>0.9002501194438002</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.910549017351979</v>
+        <v>-1.836001897748057</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2917154389194986</v>
+        <v>0.2777334270649847</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.067044741183475</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7524245396477247</v>
+        <v>0.7379829142097909</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.858120014440574</v>
+        <v>-1.791282440492783</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2504556756928437</v>
+        <v>0.2415813558869504</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.009108317146779</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5902706637904492</v>
+        <v>0.5785379252602739</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.794028316849892</v>
+        <v>-1.723046350555716</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2025204973727526</v>
+        <v>0.1994102355890624</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.9527738255434991</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4651078113028611</v>
+        <v>0.4492023480821177</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.744941743542569</v>
+        <v>-1.675455095413629</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1538707143715909</v>
+        <v>0.1420057582352263</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8968532720532187</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3564674375315663</v>
+        <v>0.355099614915156</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.686381149144138</v>
+        <v>-1.609450177581006</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1161194397663152</v>
+        <v>0.1119120866550785</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.8416249125378781</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2278385949388741</v>
+        <v>0.2226474798768245</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.630530228663025</v>
+        <v>-1.56167869724953</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07979422648493795</v>
+        <v>0.07432923209578196</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.7866713003829463</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1206793731607233</v>
+        <v>0.1161021255559809</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.590765783601606</v>
+        <v>-1.51432590600432</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04744341148484491</v>
+        <v>0.0453735763403345</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.7312249132248199</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03418230038788661</v>
+        <v>0.0206457359447007</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.565450834073727</v>
+        <v>-1.501459873706809</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007797017857523183</v>
+        <v>0.006290681558438424</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.6767218969984132</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05558558411901291</v>
+        <v>-0.07297534737114292</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.5485490167492</v>
+        <v>-1.482984037260981</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01214265637111393</v>
+        <v>-0.0152749544225023</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.62334111540585</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1280298141768771</v>
+        <v>-0.1446939546140875</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.537029557809961</v>
+        <v>-1.468680138496161</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04175940015750767</v>
+        <v>-0.04514826332566806</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.5731631461276466</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1919538787311406</v>
+        <v>-0.2183139769555632</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.54184448230202</v>
+        <v>-1.475073804166884</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07456038462629271</v>
+        <v>-0.07438724252294963</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.5269997721339446</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2498053775154261</v>
+        <v>-0.2712718502917248</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.53964164254176</v>
+        <v>-1.470211659101186</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1014934258108688</v>
+        <v>-0.1142193704065848</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4855089398266469</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3307194044650092</v>
+        <v>-0.3590454525719364</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.538698805088101</v>
+        <v>-1.469558441165847</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1235344155664423</v>
+        <v>-0.1325393789594035</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4491388192565504</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.403182522752329</v>
+        <v>-0.434941506562813</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.554771901345263</v>
+        <v>-1.493306454658471</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1477916242448072</v>
+        <v>-0.1554287650213581</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.4161533382001252</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4777359384327361</v>
+        <v>-0.4969673040567879</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.568195923421276</v>
+        <v>-1.509229232089549</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1769613466007516</v>
+        <v>-0.1913195490252564</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3863514642892414</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5477483089481907</v>
+        <v>-0.5709997194080444</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.595181694246415</v>
+        <v>-1.540149263708379</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.200148222276632</v>
+        <v>-0.2123893689829874</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3576390507902047</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6015703187819464</v>
+        <v>-0.6270237819924999</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.62810309117798</v>
+        <v>-1.564443461836095</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.214611883982264</v>
+        <v>-0.2231887141742314</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3297663900214708</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6525150216619644</v>
+        <v>-0.6808756981895603</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.671291027828228</v>
+        <v>-1.611098962610569</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2467517804201027</v>
+        <v>-0.2580123132138878</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3019681524005565</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7063464756104479</v>
+        <v>-0.7389695959185261</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.710772936457374</v>
+        <v>-1.654875582412183</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2706642789109028</v>
+        <v>-0.2766203672659046</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2736292917282189</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7778384240999252</v>
+        <v>-0.8193295681374113</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.75554354933409</v>
+        <v>-1.699358936799262</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2929523896685206</v>
+        <v>-0.3079370517033031</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2449368439830542</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8440692136764549</v>
+        <v>-0.9027848489583344</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.794602833829167</v>
+        <v>-1.738370213711139</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3158638119981734</v>
+        <v>-0.3251583949094539</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2154463327105173</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.8974489241371252</v>
+        <v>-0.954914788236692</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.827387291097178</v>
+        <v>-1.765763655488695</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3384525604079595</v>
+        <v>-0.3498610509991469</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1861320315374361</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9282934028381334</v>
+        <v>-1.006835382971916</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.86243597487118</v>
+        <v>-1.797417180018052</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3608398343702192</v>
+        <v>-0.3769845484974004</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1566998511798903</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9469116880144386</v>
+        <v>-1.03387388343762</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.907883415970056</v>
+        <v>-1.827698159873635</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3803875778376524</v>
+        <v>-0.3945694901205716</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1271618824962792</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9445955188774446</v>
+        <v>-1.03127202983011</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.936928003805857</v>
+        <v>-1.862311627360598</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3995874630792782</v>
+        <v>-0.422372963879227</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09704241390144198</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9565069085778876</v>
+        <v>-1.028911001148159</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.963853961904387</v>
+        <v>-1.886800216849794</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4086805715430323</v>
+        <v>-0.4322672480757231</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.06601507846953077</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9527127354859922</v>
+        <v>-1.037750692533383</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.005792127372322</v>
+        <v>-1.93169202919885</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4142352850221024</v>
+        <v>-0.436726444246368</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.03418793931770022</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9132961486503804</v>
+        <v>-1.003650355279964</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.032821970732859</v>
+        <v>-1.946590120181961</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4269423413883629</v>
+        <v>-0.4488290772700489</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.00164546966349707</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8633336337020541</v>
+        <v>-0.9472138996857283</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.068073702973509</v>
+        <v>-1.988066311037795</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4243452098382168</v>
+        <v>-0.4523643242164903</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03091172947094321</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8032147603735349</v>
+        <v>-0.8896960929551586</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.095476588865793</v>
+        <v>-2.011202818101794</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4317777281289986</v>
+        <v>-0.4583849473554654</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06317781028204043</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7153813453667139</v>
+        <v>-0.7977481919652576</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.121420359032632</v>
+        <v>-2.049574256240862</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4253998026494882</v>
+        <v>-0.4482750225393511</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0945963243930219</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6162559171836818</v>
+        <v>-0.7081550235808225</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.111574869428896</v>
+        <v>-2.048487396037604</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4133963328304492</v>
+        <v>-0.4313936674634012</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1249829738872185</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5059848596027195</v>
+        <v>-0.5951199884228562</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.111641765241551</v>
+        <v>-2.058459594180604</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4054302220575464</v>
+        <v>-0.4233378376005843</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1549097351464003</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3491291321077421</v>
+        <v>-0.4370192118029299</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.092171148711062</v>
+        <v>-2.044725490337695</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3810659800789331</v>
+        <v>-0.3972972652577857</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1848236521345837</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2065119815840507</v>
+        <v>-0.3002400982001427</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.05901128788262</v>
+        <v>-2.011711226277974</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.360750115280305</v>
+        <v>-0.3788025405825026</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2153303339840644</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.008391768805054392</v>
+        <v>-0.0967351660071768</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.028224260879539</v>
+        <v>-1.9742039246365</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3325043421485642</v>
+        <v>-0.3544477427186171</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2451436008332379</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1606736250138525</v>
+        <v>0.07859954597187072</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.985698986279359</v>
+        <v>-1.930051114264894</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3073420724754514</v>
+        <v>-0.340261108378334</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2738258035608383</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3703896366594709</v>
+        <v>0.2809837765504706</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.925083509918069</v>
+        <v>-1.875350801761453</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2714874909113431</v>
+        <v>-0.2973549211507985</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3005126839073264</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5730808009667244</v>
+        <v>0.5017257921408003</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.840201380763687</v>
+        <v>-1.798508762278674</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2378034817155083</v>
+        <v>-0.270785478383243</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3243561456733187</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7521585304162249</v>
+        <v>0.6893583155145701</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.723713734663147</v>
+        <v>-1.683501481161718</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2091500376313506</v>
+        <v>-0.2492340085743939</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3445194120896698</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9695305710678499</v>
+        <v>0.8999447597342678</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.628414746963997</v>
+        <v>-1.598529632917422</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1755274151812466</v>
+        <v>-0.2151832529232962</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3591318039772897</v>
       </c>
       <c r="E87" t="n">
-        <v>1.175895496004219</v>
+        <v>1.116726543215405</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.501321360024134</v>
+        <v>-1.485369463239312</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1411492635529183</v>
+        <v>-0.1724706700476807</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3677233514576321</v>
       </c>
       <c r="E88" t="n">
-        <v>1.339793385047896</v>
+        <v>1.292882893175771</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.349751188738484</v>
+        <v>-1.325656891039174</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1120251877514917</v>
+        <v>-0.1484542862948748</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3710818695858366</v>
       </c>
       <c r="E89" t="n">
-        <v>1.470038745278164</v>
+        <v>1.429477846541366</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.169001850982162</v>
+        <v>-1.14325955526285</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08450661145379175</v>
+        <v>-0.1206539605744621</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3723625970710671</v>
       </c>
       <c r="E90" t="n">
-        <v>1.583723850333227</v>
+        <v>1.546548666726348</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9821571241786036</v>
+        <v>-0.9594141218949299</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06211146739592557</v>
+        <v>-0.09289770738944572</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3759622734596446</v>
       </c>
       <c r="E91" t="n">
-        <v>1.664401774414616</v>
+        <v>1.617414155605547</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7845579117287579</v>
+        <v>-0.7674136954595507</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.06466610042979658</v>
+        <v>-0.09709876442419725</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3859370114439991</v>
       </c>
       <c r="E92" t="n">
-        <v>1.717734264301647</v>
+        <v>1.688372511612904</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5744830237234828</v>
+        <v>-0.5704252024287697</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05948600350159602</v>
+        <v>-0.0896457838848385</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.404924812578997</v>
       </c>
       <c r="E93" t="n">
-        <v>1.721817269902301</v>
+        <v>1.702640994947494</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4001824423071299</v>
+        <v>-0.4003304001045321</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06682565466422112</v>
+        <v>-0.09104980894103872</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.43215188343976</v>
       </c>
       <c r="E94" t="n">
-        <v>1.707180466093326</v>
+        <v>1.69089723828347</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2141853248003915</v>
+        <v>-0.2165463534823426</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09042807138812493</v>
+        <v>-0.1052521834725348</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4637906152829939</v>
       </c>
       <c r="E95" t="n">
-        <v>1.673343777042725</v>
+        <v>1.660065351735432</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07599589006491893</v>
+        <v>-0.07244805096550719</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0946747749773942</v>
+        <v>-0.1121999038739561</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4923990371902193</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605571235736881</v>
+        <v>1.606758046154342</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0382810461797536</v>
+        <v>0.02707560405521401</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1113688217779093</v>
+        <v>-0.1202384195264387</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.5107072561256218</v>
       </c>
       <c r="E97" t="n">
-        <v>1.505469915698642</v>
+        <v>1.521318714231019</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1018541044699671</v>
+        <v>0.08927296963341068</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1354182599322625</v>
+        <v>-0.1395233018006147</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5130180782068614</v>
       </c>
       <c r="E98" t="n">
-        <v>1.378456016724405</v>
+        <v>1.382498097827905</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1487630223229702</v>
+        <v>0.1394070526659589</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1436299176880882</v>
+        <v>-0.148366141224082</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4993752201293013</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250588999386422</v>
+        <v>1.254949032352425</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1636516691913534</v>
+        <v>0.1467954984213443</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1594897343543139</v>
+        <v>-0.1621750109752529</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4720980522923275</v>
       </c>
       <c r="E100" t="n">
-        <v>1.123636487157915</v>
+        <v>1.125007457812568</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1844822382426467</v>
+        <v>0.1610419454882368</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1666798537004155</v>
+        <v>-0.1693100396521089</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4398134359417195</v>
       </c>
       <c r="E101" t="n">
-        <v>1.009104559815592</v>
+        <v>1.017468897426184</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1948361360225626</v>
+        <v>0.1743093526616804</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.19015005281813</v>
+        <v>-0.1934224385713141</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4054348007843956</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8945238378805083</v>
+        <v>0.8995748652407621</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1961142395490588</v>
+        <v>0.164602376740619</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1962131744733803</v>
+        <v>-0.1912943647193156</v>
       </c>
     </row>
   </sheetData>
